--- a/biology/Médecine/Classe_ATC_H01/Classe_ATC_H01.xlsx
+++ b/biology/Médecine/Classe_ATC_H01/Classe_ATC_H01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une section du code ATC :
 H Hormones systémiques, hormones sexuelles exclues
-H01 Hormones hypophysaires, hypothalamiques, hormones de l'anté-hypophyse, analogues[1].
+H01 Hormones hypophysaires, hypothalamiques, hormones de l'anté-hypophyse, analogues.
 </t>
         </is>
       </c>
@@ -515,90 +527,241 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>H01AA ACTH
-H01AA01 Corticotropine
-H01AA02 Tétracosactide (en)
-H01AB Thyrotrophine
-H01AB01 Thyrotrophine
-H01AC Somatotropine et analogues
-H01AC01 Somatropine
+          <t>H01AA ACTH</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>H01AA01 Corticotropine
+H01AA02 Tétracosactide (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>H01A Hormones de l'anté-hypophyse et analogues</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>H01AB Thyrotrophine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>H01AB01 Thyrotrophine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>H01A Hormones de l'anté-hypophyse et analogues</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>H01AC Somatotropine et analogues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>H01AC01 Somatropine
 H01AC02 Somatrem (en)
 H01AC03 Mécasermine (en)
 H01AC04 Sermoréline (en)
 H01AC05 Mécasermine rinfabate (en)
-H01AC06 Tésamoréline
-H01AX Autres hormones de l'anté-hypophyse et analogues
-H01AX01 Pegvisomant</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_H01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+H01AC06 Tésamoréline</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>H01A Hormones de l'anté-hypophyse et analogues</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H01AX Autres hormones de l'anté-hypophyse et analogues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>H01AX01 Pegvisomant</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>H01B Hormones de la post-hypophyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>H01BA Vasopressine et analogues
-H01BA01 Vasopressine (Argipressine)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H01BA Vasopressine et analogues</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>H01BA01 Vasopressine (Argipressine)
 H01BA02 Desmopressine
 H01BA03 Lypressine
 H01BA04 Terlipressine
-H01BA05 Ornipressine
-H01BB Oxytocine et analogues
-H01BB01 Démoxytocine (en)
+H01BA05 Ornipressine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>H01B Hormones de la post-hypophyse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>H01BB Oxytocine et analogues</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>H01BB01 Démoxytocine (en)
 H01BB02 Oxytocine
 H01BB03 Carbétocine (en)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_H01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>H01C Hormones hypothalamiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>H01CA Hormones entraînant la libération de gonadotrophines
-H01CA01 Gonadoréline
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>H01CA Hormones entraînant la libération de gonadotrophines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>H01CA01 Gonadoréline
 H01CA02 Nafaréline (en)
 QH01CA90 Buséréline (en)
 QH01CA91 Fertiréline
@@ -607,15 +770,83 @@
 QH01CA94 Azagly-nafaréline
 QH01CA95 Péforéline
 QH01CA96 analogue de l'hormone de libération des gonadotrophines hypophysaire, provenant du saumon
-QH01CA97 Triptoréline
-H01CB Somatostatine et analogues
-H01CB01 Somatostatine
+QH01CA97 Triptoréline</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>H01C Hormones hypothalamiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H01CB Somatostatine et analogues</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>H01CB01 Somatostatine
 H01CB02 Octréotide
 H01CB03 Lanréotide
 H01CB04 Vapréotide (en)
-H01CB05 Pasiréotide
-H01CC Anti-hormones entraînant la libération de gonadotrophine
-H01CC01 Ganirélix
+H01CB05 Pasiréotide</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_H01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>H01C Hormones hypothalamiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H01CC Anti-hormones entraînant la libération de gonadotrophine</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>H01CC01 Ganirélix
 H01CC02 Cétrorélix (en)</t>
         </is>
       </c>
